--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H2">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I2">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J2">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>470.2770305953893</v>
+        <v>184.662213217064</v>
       </c>
       <c r="R2">
-        <v>4232.493275358504</v>
+        <v>1661.959918953576</v>
       </c>
       <c r="S2">
-        <v>0.007460447036950997</v>
+        <v>0.004557130822921913</v>
       </c>
       <c r="T2">
-        <v>0.00957141244079306</v>
+        <v>0.005238899488419402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H3">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I3">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J3">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>503.26416013499</v>
+        <v>224.0176333187466</v>
       </c>
       <c r="R3">
-        <v>4529.37744121491</v>
+        <v>2016.15869986872</v>
       </c>
       <c r="S3">
-        <v>0.007983752911617386</v>
+        <v>0.005528351707097073</v>
       </c>
       <c r="T3">
-        <v>0.01024278995132479</v>
+        <v>0.006355419683024021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H4">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I4">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J4">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>252.7053760327853</v>
+        <v>126.4690554350471</v>
       </c>
       <c r="R4">
-        <v>2274.348384295068</v>
+        <v>1138.221498915424</v>
       </c>
       <c r="S4">
-        <v>0.00400890315960897</v>
+        <v>0.003121028501870117</v>
       </c>
       <c r="T4">
-        <v>0.005143239458140789</v>
+        <v>0.003587949360493902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H5">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I5">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J5">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>575.8774470974865</v>
+        <v>137.9240364285667</v>
       </c>
       <c r="R5">
-        <v>3455.264682584919</v>
+        <v>827.5442185714002</v>
       </c>
       <c r="S5">
-        <v>0.009135685807163616</v>
+        <v>0.003403716800965673</v>
       </c>
       <c r="T5">
-        <v>0.007813778124981168</v>
+        <v>0.002608619458192388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H6">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I6">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J6">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>288.7175537263277</v>
+        <v>136.05690010088</v>
       </c>
       <c r="R6">
-        <v>2598.457983536949</v>
+        <v>1224.51210090792</v>
       </c>
       <c r="S6">
-        <v>0.00458019821951823</v>
+        <v>0.003357639239339698</v>
       </c>
       <c r="T6">
-        <v>0.005876184899170801</v>
+        <v>0.003859958201067221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>148.519018</v>
       </c>
       <c r="I7">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J7">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>6842.720940854957</v>
+        <v>6036.245527419434</v>
       </c>
       <c r="R7">
-        <v>61584.48846769462</v>
+        <v>54326.2097467749</v>
       </c>
       <c r="S7">
-        <v>0.1085525208476648</v>
+        <v>0.1489636675988119</v>
       </c>
       <c r="T7">
-        <v>0.1392679209938357</v>
+        <v>0.1712493479562032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>148.519018</v>
       </c>
       <c r="I8">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J8">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>7322.697013242648</v>
+        <v>7322.697013242646</v>
       </c>
       <c r="R8">
         <v>65904.27311918382</v>
       </c>
       <c r="S8">
-        <v>0.1161668329107453</v>
+        <v>0.180710973212156</v>
       </c>
       <c r="T8">
-        <v>0.1490367352281143</v>
+        <v>0.2077462030168184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>148.519018</v>
       </c>
       <c r="I9">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J9">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>3676.965396878815</v>
+        <v>4134.025347835594</v>
       </c>
       <c r="R9">
-        <v>33092.68857190934</v>
+        <v>37206.22813052035</v>
       </c>
       <c r="S9">
-        <v>0.05833116188002241</v>
+        <v>0.1020202996983316</v>
       </c>
       <c r="T9">
-        <v>0.07483621366643148</v>
+        <v>0.117283026681971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>148.519018</v>
       </c>
       <c r="I10">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J10">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>8379.249698058075</v>
+        <v>4508.466207089942</v>
       </c>
       <c r="R10">
-        <v>50275.49818834845</v>
+        <v>27050.79724253965</v>
       </c>
       <c r="S10">
-        <v>0.1329279222984929</v>
+        <v>0.1112608256908559</v>
       </c>
       <c r="T10">
-        <v>0.113693631039796</v>
+        <v>0.08527065317225414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>148.519018</v>
       </c>
       <c r="I11">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J11">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>4200.957143014945</v>
+        <v>4447.43318300378</v>
       </c>
       <c r="R11">
-        <v>37808.61428713451</v>
+        <v>40026.89864703402</v>
       </c>
       <c r="S11">
-        <v>0.06664373599170899</v>
+        <v>0.109754640584365</v>
       </c>
       <c r="T11">
-        <v>0.0855008661830356</v>
+        <v>0.1261744621236075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H12">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I12">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J12">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>362.1481479930658</v>
+        <v>462.682416882518</v>
       </c>
       <c r="R12">
-        <v>3259.333331937592</v>
+        <v>4164.141751942661</v>
       </c>
       <c r="S12">
-        <v>0.005745096829865557</v>
+        <v>0.01141816870092884</v>
       </c>
       <c r="T12">
-        <v>0.00737069655458733</v>
+        <v>0.01312638159631072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H13">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I13">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J13">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>387.5506811664367</v>
+        <v>561.2898177841266</v>
       </c>
       <c r="R13">
-        <v>3487.956130497931</v>
+        <v>5051.608360057139</v>
       </c>
       <c r="S13">
-        <v>0.006148081115754221</v>
+        <v>0.01385162175116779</v>
       </c>
       <c r="T13">
-        <v>0.007887706968077944</v>
+        <v>0.01592389091420548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H14">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I14">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J14">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>194.6018579778404</v>
+        <v>316.8759174393431</v>
       </c>
       <c r="R14">
-        <v>1751.416721800564</v>
+        <v>2851.883256954088</v>
       </c>
       <c r="S14">
-        <v>0.003087152381008022</v>
+        <v>0.007819926910044479</v>
       </c>
       <c r="T14">
-        <v>0.003960675353615299</v>
+        <v>0.008989825546031097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H15">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I15">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J15">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>443.4682907504396</v>
+        <v>345.5770696625917</v>
       </c>
       <c r="R15">
-        <v>2660.809744502637</v>
+        <v>2073.46241797555</v>
       </c>
       <c r="S15">
-        <v>0.007035154771480511</v>
+        <v>0.00852821965262195</v>
       </c>
       <c r="T15">
-        <v>0.006017187939645045</v>
+        <v>0.006536054857224506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H16">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I16">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J16">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>222.333902301592</v>
+        <v>340.89884592806</v>
       </c>
       <c r="R16">
-        <v>2001.005120714327</v>
+        <v>3068.08961335254</v>
       </c>
       <c r="S16">
-        <v>0.003527091894196217</v>
+        <v>0.008412769516907941</v>
       </c>
       <c r="T16">
-        <v>0.00452509763405908</v>
+        <v>0.00967136025514854</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H17">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I17">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J17">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>6029.448919140227</v>
+        <v>2156.609267162353</v>
       </c>
       <c r="R17">
-        <v>36176.69351484136</v>
+        <v>12939.65560297412</v>
       </c>
       <c r="S17">
-        <v>0.09565082153023213</v>
+        <v>0.05322123239599748</v>
       </c>
       <c r="T17">
-        <v>0.08181042044192754</v>
+        <v>0.04078892297320075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H18">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I18">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J18">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>6452.378808563651</v>
+        <v>2616.228277601645</v>
       </c>
       <c r="R18">
-        <v>38714.2728513819</v>
+        <v>15697.36966560987</v>
       </c>
       <c r="S18">
-        <v>0.1023601563161398</v>
+        <v>0.06456380174347789</v>
       </c>
       <c r="T18">
-        <v>0.08754893361870424</v>
+        <v>0.04948190445078413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H19">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I19">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J19">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>3239.950193724686</v>
+        <v>1476.990512617167</v>
       </c>
       <c r="R19">
-        <v>19439.70116234812</v>
+        <v>8861.943075703004</v>
       </c>
       <c r="S19">
-        <v>0.051398378509025</v>
+        <v>0.03644946561048233</v>
       </c>
       <c r="T19">
-        <v>0.04396117972209603</v>
+        <v>0.0279349871896635</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H20">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I20">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J20">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>7383.357946619678</v>
+        <v>1610.769468990631</v>
       </c>
       <c r="R20">
-        <v>29533.43178647871</v>
+        <v>6443.077875962525</v>
       </c>
       <c r="S20">
-        <v>0.1171291543749647</v>
+        <v>0.03975088930148521</v>
       </c>
       <c r="T20">
-        <v>0.06678726651880434</v>
+        <v>0.02031013925382717</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H21">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I21">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J21">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>3701.664399913569</v>
+        <v>1588.963797775095</v>
       </c>
       <c r="R21">
-        <v>22209.98639948141</v>
+        <v>9533.78278665057</v>
       </c>
       <c r="S21">
-        <v>0.05872298540534532</v>
+        <v>0.03921276461057178</v>
       </c>
       <c r="T21">
-        <v>0.05022593688960671</v>
+        <v>0.03005278839403861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H22">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I22">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J22">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>473.6199513202329</v>
+        <v>407.769451984914</v>
       </c>
       <c r="R22">
-        <v>4262.579561882097</v>
+        <v>3669.925067864226</v>
       </c>
       <c r="S22">
-        <v>0.007513478933883848</v>
+        <v>0.01006301563223501</v>
       </c>
       <c r="T22">
-        <v>0.009639449939826012</v>
+        <v>0.01156849111781046</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H23">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I23">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J23">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>506.8415668155934</v>
+        <v>494.6737395915799</v>
       </c>
       <c r="R23">
-        <v>4561.57410134034</v>
+        <v>4452.06365632422</v>
       </c>
       <c r="S23">
-        <v>0.008040504679902746</v>
+        <v>0.01220765692509595</v>
       </c>
       <c r="T23">
-        <v>0.01031559987522252</v>
+        <v>0.01403398105184935</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H24">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I24">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J24">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>254.5017087980702</v>
+        <v>279.2678400706694</v>
       </c>
       <c r="R24">
-        <v>2290.515379182632</v>
+        <v>2513.410560636024</v>
       </c>
       <c r="S24">
-        <v>0.00403740007649896</v>
+        <v>0.006891827297341591</v>
       </c>
       <c r="T24">
-        <v>0.005179799699570579</v>
+        <v>0.007922877772283869</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H25">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I25">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J25">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>579.9710186045511</v>
+        <v>304.562626918775</v>
       </c>
       <c r="R25">
-        <v>3479.826111627307</v>
+        <v>1827.37576151265</v>
       </c>
       <c r="S25">
-        <v>0.009200625983769226</v>
+        <v>0.007516057077742005</v>
       </c>
       <c r="T25">
-        <v>0.007869321643235205</v>
+        <v>0.00576033021793112</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H26">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I26">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J26">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>290.7698757220585</v>
+        <v>300.43963313538</v>
       </c>
       <c r="R26">
-        <v>2616.928881498527</v>
+        <v>2703.95669821842</v>
       </c>
       <c r="S26">
-        <v>0.00461275613444028</v>
+        <v>0.007414309017184866</v>
       </c>
       <c r="T26">
-        <v>0.005917955215398198</v>
+        <v>0.008523525267639378</v>
       </c>
     </row>
   </sheetData>
